--- a/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/Matrice_StaREau_SIG_ASSAINISSEMENT_liste.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/Matrice_StaREau_SIG_ASSAINISSEMENT_liste.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$K$152</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$K$153</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="395">
   <si>
     <t xml:space="preserve">schema</t>
   </si>
@@ -34,30 +34,30 @@
     <t xml:space="preserve">attribut</t>
   </si>
   <si>
+    <t xml:space="preserve">définition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type de valeurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeurs possibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nullable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom raepa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reglementaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentaires</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment base</t>
   </si>
   <si>
-    <t xml:space="preserve">définition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type de valeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeurs possibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nullable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom raepa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reglementaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commentaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">stareau_ass</t>
   </si>
   <si>
@@ -67,45 +67,45 @@
     <t xml:space="preserve">id_ass_affleurant</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non</t>
+  </si>
+  <si>
     <t xml:space="preserve">identifiant métier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non</t>
-  </si>
-  <si>
     <t xml:space="preserve">type_affleurant</t>
   </si>
   <si>
+    <t xml:space="preserve">Type affleurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_type_affleurant</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'affleurant*</t>
   </si>
   <si>
-    <t xml:space="preserve">Type affleurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_type_affleurant</t>
-  </si>
-  <si>
     <t xml:space="preserve">id_affleurant_pcrs</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifiant affleurant PCRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voir liste PCRS</t>
+  </si>
+  <si>
     <t xml:space="preserve">lien vers identifiant PCRS</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant affleurant PCRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voir liste PCRS</t>
-  </si>
-  <si>
     <t xml:space="preserve">id_emprise</t>
   </si>
   <si>
@@ -148,69 +148,69 @@
     <t xml:space="preserve">nom_usuel</t>
   </si>
   <si>
+    <t xml:space="preserve">Nom usuel du bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">nom usuel</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom usuel du bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">type_bassin</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : bassin à ciel ouvert, enterré, cuve…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de bassin*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : bassin à ciel ouvert, enterré, cuve…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">fonction_bassin</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : infiltration,rétention,stockage,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_fonction_bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">*fonction du bassin*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : infiltration,rétention,stockage,…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_fonction_bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">structure_bassin</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : cadre béton, alvéolaire, cuve acier, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_structure_bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">*structure du bassin*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : cadre béton, alvéolaire, cuve acier, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_structure_bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacite</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacité maximale de stockage du bassin en M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacité maximale de stockage en m3</t>
   </si>
   <si>
-    <t xml:space="preserve">Capacité maximale de stockage du bassin en M3</t>
-  </si>
-  <si>
     <t xml:space="preserve">debit_fuite</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantité limitée d'eau en M3/s qui s'évacue du bassin de stockage par l'intermédiaire d'un dispositif de régulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décimal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantité limitée d'eau en M3/s qui s'évacue du bassin par l'intermédiaire d'un dispositif de régulation</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantité limitée d'eau en M3/s qui s'évacue du bassin de stockage par l'intermédiaire d'un dispositif de régulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décimal</t>
-  </si>
-  <si>
     <t xml:space="preserve">cote_radier</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t xml:space="preserve">cote_trop_plein</t>
   </si>
   <si>
+    <t xml:space="preserve">Cote NGF de débordement du bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote NGF de débordement du bassin</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote NGF de débordement du bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">telegestion</t>
   </si>
   <si>
+    <t xml:space="preserve">présence d'une gestion à distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_oui_non</t>
+  </si>
+  <si>
     <t xml:space="preserve">*présence d'une gestion à distance*</t>
   </si>
   <si>
-    <t xml:space="preserve">présence d'une gestion à distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_oui_non</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_canalisation</t>
   </si>
   <si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">fonction_canalisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*fonction de la canalisation dans le réseau*</t>
   </si>
   <si>
     <t xml:space="preserve">Fonction principale dans le réseau d'une canalisation d'assainissement collectif
@@ -264,63 +261,66 @@
     <t xml:space="preserve">fonctionCanAss</t>
   </si>
   <si>
+    <t xml:space="preserve">*fonction de la canalisation dans le réseau*</t>
+  </si>
+  <si>
     <t xml:space="preserve">contenu_canalisation</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : eaux résiduaires urbaines, eaux résiduaires industrielles…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_contenu_canalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contCanAss</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'eau transportée*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : eaux résiduaires urbaines, eaux résiduaires industrielles…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_contenu_canalisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contCanAss</t>
-  </si>
-  <si>
     <t xml:space="preserve">visitable</t>
   </si>
   <si>
+    <t xml:space="preserve">Visitable en inspection pédestre</t>
+  </si>
+  <si>
     <t xml:space="preserve">*possibilité de visite pédestre*</t>
   </si>
   <si>
-    <t xml:space="preserve">Visitable en inspection pédestre</t>
-  </si>
-  <si>
     <t xml:space="preserve">altitude_fil_eau_amont</t>
   </si>
   <si>
+    <t xml:space="preserve">Exprimés en m NGF avec 2 décimales (au cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altAmont</t>
+  </si>
+  <si>
     <t xml:space="preserve">altitude fil d'eau amont</t>
   </si>
   <si>
-    <t xml:space="preserve">Exprimés en m NGF avec 2 décimales (au cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">altAmont</t>
-  </si>
-  <si>
     <t xml:space="preserve">altitude_fil_eau_aval</t>
   </si>
   <si>
+    <t xml:space="preserve">altAval</t>
+  </si>
+  <si>
     <t xml:space="preserve">altitude fil d'eau aval</t>
   </si>
   <si>
-    <t xml:space="preserve">altAval</t>
-  </si>
-  <si>
     <t xml:space="preserve">bassin_collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">Bassin de collecte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champ de saisie ou référence au poste de refoulement du bassin</t>
+  </si>
+  <si>
     <t xml:space="preserve">identifiant bassin de collecte</t>
   </si>
   <si>
-    <t xml:space="preserve">Bassin de collecte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champ de saisie ou référence au poste de refoulement du bassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_traitement</t>
   </si>
   <si>
@@ -345,33 +345,33 @@
     <t xml:space="preserve">type_chambre_depollution</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple  : simple, double ou triple…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_chambre</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de chambre de dépollution*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple  : simple, double ou triple…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_chambre</t>
-  </si>
-  <si>
     <t xml:space="preserve">bypass</t>
   </si>
   <si>
+    <t xml:space="preserve">Bypass : Oui/non</t>
+  </si>
+  <si>
     <t xml:space="preserve">*présence d'un by-pass*</t>
   </si>
   <si>
-    <t xml:space="preserve">Bypass : Oui/non</t>
-  </si>
-  <si>
     <t xml:space="preserve">volume_chambre</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume total de la (ou des) cuve(s) en m3</t>
+  </si>
+  <si>
     <t xml:space="preserve">volume totale en m3</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume total de la (ou des) cuve(s) en m3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_equipement</t>
   </si>
   <si>
@@ -381,27 +381,27 @@
     <t xml:space="preserve">type_equipement</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : clapet, seuil, batardeau, orifice, ventouse, vanne, barrage à poutrelles, seuil fixe, porte à flots, venturi…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_equipement</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type équipement*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : clapet, seuil, batardeau, orifice, ventouse, vanne, barrage à poutrelles, seuil fixe, porte à flots, venturi…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_equipement</t>
-  </si>
-  <si>
     <t xml:space="preserve">fonction_equipement</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : régulation, déviation, déversoir d'orage, anti-crue, anti retour, reprise temps sec, mise en sécurité…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_fonction_equipement</t>
+  </si>
+  <si>
     <t xml:space="preserve">*fonction de l'équipement*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : régulation, déviation, déversoir d'orage, anti-crue, anti retour, reprise temps sec, mise en sécurité…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_fonction_equipement</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_exutoire</t>
   </si>
   <si>
@@ -411,27 +411,27 @@
     <t xml:space="preserve">code_topage</t>
   </si>
   <si>
+    <t xml:space="preserve">Code TOPAGE du milieu récepteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire référence à la codification de la BD TOPAGE (OFB/IGN/SANDRE ?).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code TOPAGE (CdOH) du milieu récepteur</t>
   </si>
   <si>
-    <t xml:space="preserve">Code TOPAGE du milieu récepteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire référence à la codification de la BD TOPAGE (OFB/IGN/SANDRE ?).</t>
-  </si>
-  <si>
     <t xml:space="preserve">destination</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : naturel, artificiel…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_destination</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de milieu récepteur*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : naturel, artificiel…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_destination</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_genie_civil</t>
   </si>
   <si>
@@ -441,27 +441,27 @@
     <t xml:space="preserve">materiau</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : béton…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_materiau</t>
+  </si>
+  <si>
     <t xml:space="preserve">*matériau constitutif du GC*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : béton…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_materiau</t>
-  </si>
-  <si>
     <t xml:space="preserve">niveau</t>
   </si>
   <si>
+    <t xml:space="preserve">Exemple : 0,1,-1,-2…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entier</t>
+  </si>
+  <si>
     <t xml:space="preserve">niveau par rapport au sol</t>
   </si>
   <si>
-    <t xml:space="preserve">Exemple : 0,1,-1,-2…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entier</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_ouvrage_special_ligne</t>
   </si>
   <si>
@@ -471,27 +471,27 @@
     <t xml:space="preserve">type_ouvrage_special</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : puits d'infiltration, puits de chute, gradins, sauts de ski, siphon, chasse..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_ouvrage_special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvrage particulier déjà prévu en symbologie, voir ils peuvent s'insérer dans catégorie 'Ouvrages particuliers' / 'spéciaux'</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'ouvrage spécial*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : puits d'infiltration, puits de chute, gradins, sauts de ski, siphon, chasse..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_ouvrage_special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouvrage particulier déjà prévu en symbologie, voir ils peuvent s'insérer dans catégorie 'Ouvrages particuliers' / 'spéciaux'</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_ouvrage</t>
   </si>
   <si>
+    <t xml:space="preserve">Lien avec l'ouvrage de référence de l'assainissement </t>
+  </si>
+  <si>
     <t xml:space="preserve">ouvrage ou canalisation de rattachement</t>
   </si>
   <si>
-    <t xml:space="preserve">Lien avec l'ouvrage de référence de l'assainissement </t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_ouvrage_special_point</t>
   </si>
   <si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t xml:space="preserve">type_perimetre_gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*type de périmètre*</t>
   </si>
   <si>
     <t xml:space="preserve">exemple : cloture, enceinte, administratif...</t>
@@ -529,18 +526,21 @@
 Notion de surfacique sur chambre de vannes pas évidente. Pour info : possibilité de représenter avec un symbole ponctuel une emprise.</t>
   </si>
   <si>
+    <t xml:space="preserve">*type de périmètre*</t>
+  </si>
+  <si>
     <t xml:space="preserve">type_acces</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : libre, restreint, sous autorisation…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_type_acces</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'accès*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : libre, restreint, sous autorisation…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_type_acces</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_piece</t>
   </si>
   <si>
@@ -550,15 +550,15 @@
     <t xml:space="preserve">type_piece</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : coude, té, manchon, cône, bouchon, raccord…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_piece</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de pièce*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : coude, té, manchon, cône, bouchon, raccord…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_piece</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_piece_hors_topo</t>
   </si>
   <si>
@@ -580,39 +580,42 @@
     <t xml:space="preserve">type_point_mesure</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : hauteur, hauteur &amp; vitesse, débit, turbidité, température…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_point_mesure</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type du point de mesure*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : hauteur, hauteur &amp; vitesse, débit, turbidité, température…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_point_mesure</t>
-  </si>
-  <si>
     <t xml:space="preserve">code_sandre</t>
   </si>
   <si>
+    <t xml:space="preserve">Codification SANDRE du type de point reglementaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_code_sandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liste des valeurs de la codification du SANDRE</t>
+  </si>
+  <si>
     <t xml:space="preserve">*code sandre officiel*</t>
   </si>
   <si>
-    <t xml:space="preserve">Codification SANDRE du type de point reglementaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_code_sandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des valeurs de la codification du SANDRE</t>
+    <t xml:space="preserve">nom d’’usage du point</t>
   </si>
   <si>
     <t xml:space="preserve">id_sandre</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifiant SANDRE du point de mesure</t>
+  </si>
+  <si>
     <t xml:space="preserve">identifiant SANDRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant SANDRE du point de mesure</t>
-  </si>
-  <si>
     <t xml:space="preserve">référence à l'ouvrage de rattachement</t>
   </si>
   <si>
@@ -625,87 +628,87 @@
     <t xml:space="preserve">type_pompage</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : poste de refoulement, relevage, pompage en ligne...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_pompage</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de pompage*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : poste de refoulement, relevage, pompage en ligne...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_pompage</t>
+    <t xml:space="preserve">Nom usuel du poste de pompage</t>
   </si>
   <si>
     <t xml:space="preserve">nom d'usage du pompage</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom usuel du poste de pompage</t>
-  </si>
-  <si>
     <t xml:space="preserve">fonction_pompage</t>
   </si>
   <si>
+    <t xml:space="preserve">Fonction principale. Exemple : anti-crue, vidange, siphon, relevage EU, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_fonction_pompage</t>
+  </si>
+  <si>
     <t xml:space="preserve">*fonction du pompage*</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonction principale. Exemple : anti-crue, vidange, siphon, relevage EU, …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_fonction_pompage</t>
-  </si>
-  <si>
     <t xml:space="preserve">nb_pompe</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre total de pompes du poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A préciser total ou en fonctionnement ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">nombre de pompe</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre total de pompes du poste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A préciser total ou en fonctionnement ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">debit_temps_sec</t>
   </si>
   <si>
+    <t xml:space="preserve">Débit maximal par temps sec en M3/Heure</t>
+  </si>
+  <si>
     <t xml:space="preserve">débit maximal moyen par temps sec (m3/h)</t>
   </si>
   <si>
-    <t xml:space="preserve">Débit maximal par temps sec en M3/Heure</t>
-  </si>
-  <si>
     <t xml:space="preserve">debit_temps_pluie</t>
   </si>
   <si>
+    <t xml:space="preserve">Débit maximal par temps de pluie en M3/Heure</t>
+  </si>
+  <si>
     <t xml:space="preserve">débit maximal moyen par temps de pluie (m3/h)</t>
   </si>
   <si>
-    <t xml:space="preserve">Débit maximal par temps de pluie en M3/Heure</t>
-  </si>
-  <si>
     <t xml:space="preserve">nb_bache</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre de baches du poste</t>
+  </si>
+  <si>
     <t xml:space="preserve">nombre de bâche du poste</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de baches du poste</t>
-  </si>
-  <si>
     <t xml:space="preserve">volume_bache</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume de la (ou des) bache(s) du poste (m3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">volume total de la ou des bâches</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume de la (ou des) bache(s) du poste (m3)</t>
+    <t xml:space="preserve">Cote trop plein en mètres NGF</t>
   </si>
   <si>
     <t xml:space="preserve">cote de déversement du trop-plein (NGF)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote trop plein en mètres NGF</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_pretraitement</t>
   </si>
   <si>
@@ -718,30 +721,30 @@
     <t xml:space="preserve">type_pretraitement</t>
   </si>
   <si>
+    <t xml:space="preserve">Exemple : combiné, dégrilleur, déshuileur, débourbeur, décanteur à sable, décanteur à graisses, séparateur d'hydrocarbures, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_pretraitement</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de prétraitement*</t>
   </si>
   <si>
-    <t xml:space="preserve">Exemple : combiné, dégrilleur, déshuileur, débourbeur, décanteur à sable, décanteur à graisses, séparateur d'hydrocarbures, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_pretraitement</t>
+    <t xml:space="preserve">Capacité de prétraitement en M3/seconde</t>
   </si>
   <si>
     <t xml:space="preserve">capacité du prétraitement en m³/s</t>
   </si>
   <si>
-    <t xml:space="preserve">Capacité de prétraitement en M3/seconde</t>
-  </si>
-  <si>
     <t xml:space="preserve">volume</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume de stockage en M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">volume total du stockage éventuel</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume de stockage en M3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_protection_mecanique</t>
   </si>
   <si>
@@ -751,15 +754,15 @@
     <t xml:space="preserve">type_protection</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : Fourreau, galerie, coffrage…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_type_protection</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de protection*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : Fourreau, galerie, coffrage…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_type_protection</t>
-  </si>
-  <si>
     <t xml:space="preserve">*matériau constitutif de la protection*</t>
   </si>
   <si>
@@ -772,42 +775,42 @@
     <t xml:space="preserve">type_regard</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : regard de visite, chambre, regard borgne, regard mixte….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_regard</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de regard*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : regard de visite, chambre, regard borgne, regard mixte….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_regard</t>
-  </si>
-  <si>
     <t xml:space="preserve">*matériau constitutif du regard*</t>
   </si>
   <si>
     <t xml:space="preserve">position</t>
   </si>
   <si>
+    <t xml:space="preserve">Positionnement du regard par rapport au réseau. Exemple : axial, déporté, non axial…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_position</t>
+  </si>
+  <si>
     <t xml:space="preserve">*position par rapport à la canalisation*</t>
   </si>
   <si>
-    <t xml:space="preserve">Positionnement du regard par rapport au réseau. Exemple : axial, déporté, non axial…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_position</t>
-  </si>
-  <si>
     <t xml:space="preserve">type_descente</t>
   </si>
   <si>
+    <t xml:space="preserve">Exemple : Echelon simple, échelon double, échelle, trous dans la paroi, rien…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_descente</t>
+  </si>
+  <si>
     <t xml:space="preserve">*élément de descente dans le regard*</t>
   </si>
   <si>
-    <t xml:space="preserve">Exemple : Echelon simple, échelon double, échelle, trous dans la paroi, rien…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_descente</t>
-  </si>
-  <si>
     <t xml:space="preserve">nb_paliers</t>
   </si>
   <si>
@@ -817,21 +820,21 @@
     <t xml:space="preserve">z_tampon</t>
   </si>
   <si>
+    <t xml:space="preserve">Altitude mesurée au tampon</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote NGF du tampon</t>
   </si>
   <si>
-    <t xml:space="preserve">Altitude mesurée au tampon</t>
-  </si>
-  <si>
     <t xml:space="preserve">z_radier</t>
   </si>
   <si>
+    <t xml:space="preserve">Altitude au point le + bas du regard</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote NGF du point le plus bas du regard</t>
   </si>
   <si>
-    <t xml:space="preserve">Altitude au point le + bas du regard</t>
-  </si>
-  <si>
     <t xml:space="preserve">profondeur_mesure</t>
   </si>
   <si>
@@ -841,40 +844,40 @@
     <t xml:space="preserve">id_ass_traitement</t>
   </si>
   <si>
+    <t xml:space="preserve">Nom usuel du système de traitement</t>
+  </si>
+  <si>
     <t xml:space="preserve">nom de l'ouvrage (nomouvragedepollution)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom usuel du système de traitement</t>
-  </si>
-  <si>
     <t xml:space="preserve">code_ouvrage_sandre</t>
   </si>
   <si>
+    <t xml:space="preserve">Code SANDRE dénommé 'code ouvrage de dépollution' : CdOuvrageDepollution</t>
+  </si>
+  <si>
     <t xml:space="preserve">code sandre de l'ouvrage (cdouvragedepollution)</t>
   </si>
   <si>
-    <t xml:space="preserve">Code SANDRE dénommé 'code ouvrage de dépollution' : CdOuvrageDepollution</t>
-  </si>
-  <si>
     <t xml:space="preserve">techno_traitement</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : physico-chimique, biologique, chimique…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_techno_traitement</t>
+  </si>
+  <si>
     <t xml:space="preserve">*technologie du traitement*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : physico-chimique, biologique, chimique…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_techno_traitement</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacite_nominale</t>
   </si>
   <si>
+    <t xml:space="preserve">capacité nominale du traitement (capaciteNom) en EH</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacité nominale du traitement (capaciteNom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacité nominale du traitement (capaciteNom) en EH</t>
   </si>
   <si>
     <t xml:space="preserve">mm_ass_cana_protection</t>
@@ -912,33 +915,33 @@
     <t xml:space="preserve">type_engouffrement</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : grille, caniveau, gargouille, avaloir, grille-avaloir, tampon avaloir, grille double…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_engouffrement</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'engouffrement*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : grille, caniveau, gargouille, avaloir, grille-avaloir, tampon avaloir, grille double…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_engouffrement</t>
-  </si>
-  <si>
     <t xml:space="preserve">decantation</t>
   </si>
   <si>
+    <t xml:space="preserve">Décantation (O/N)</t>
+  </si>
+  <si>
     <t xml:space="preserve">*présence décantation*</t>
   </si>
   <si>
-    <t xml:space="preserve">Décantation (O/N)</t>
-  </si>
-  <si>
     <t xml:space="preserve">siphon</t>
   </si>
   <si>
+    <t xml:space="preserve">Siphon (O/N)</t>
+  </si>
+  <si>
     <t xml:space="preserve">*présence d'un siphon*</t>
   </si>
   <si>
-    <t xml:space="preserve">Siphon (O/N)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_engouffrement_point</t>
   </si>
   <si>
@@ -960,51 +963,51 @@
     <t xml:space="preserve">type_point_collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : boite à passage direct, boite syphoide, té de visite, borgne, étanche, fictif…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_point_collecte</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de boite de point de collecte*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : boite à passage direct, boite syphoide, té de visite, borgne, étanche, fictif…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_point_collecte</t>
-  </si>
-  <si>
     <t xml:space="preserve">type_usager</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : industriel, domestique, commercial, tertiaire, médical…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com_type_usager</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type d'usager raccordé*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : industriel, domestique, commercial, tertiaire, médical…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_type_usager</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_externe</t>
   </si>
   <si>
+    <t xml:space="preserve">Référence externe du point de collecte pour interfaçage avec la gestion des usagers</t>
+  </si>
+  <si>
     <t xml:space="preserve">référence externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Référence externe du point de collecte pour interfaçage avec la gestion des usagers</t>
-  </si>
-  <si>
     <t xml:space="preserve">*matériau*</t>
   </si>
   <si>
+    <t xml:space="preserve">Cote du tampon affleurant en m (NGF-IGN 69)</t>
+  </si>
+  <si>
     <t xml:space="preserve">z NGF tampon</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote du tampon affleurant en m (NGF-IGN 69)</t>
+    <t xml:space="preserve">Altitude mesurée au point le plus bas de la boite, en m (NGF-IGN 69)</t>
   </si>
   <si>
     <t xml:space="preserve">z NGF radier</t>
   </si>
   <si>
-    <t xml:space="preserve">Altitude mesurée au point le plus bas de la boite, en m (NGF-IGN 69)</t>
-  </si>
-  <si>
     <t xml:space="preserve">profondeur</t>
   </si>
   <si>
@@ -1023,15 +1026,15 @@
     <t xml:space="preserve">type_raccord</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : culotte, selle, tulipe, piquage direct, té de branchement…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_raccord</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de raccord*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : culotte, selle, tulipe, piquage direct, té de branchement…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_raccord</t>
-  </si>
-  <si>
     <t xml:space="preserve">canalisation de référence</t>
   </si>
   <si>
@@ -1050,42 +1053,42 @@
     <t xml:space="preserve">diametre</t>
   </si>
   <si>
+    <t xml:space="preserve">diametre interne du forage</t>
+  </si>
+  <si>
     <t xml:space="preserve">diamètre interne du forage</t>
   </si>
   <si>
-    <t xml:space="preserve">diametre interne du forage</t>
-  </si>
-  <si>
     <t xml:space="preserve">cote_tn</t>
   </si>
   <si>
+    <t xml:space="preserve">Cote du terrain naturel en mètres NGF</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote terrain naturel</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote du terrain naturel en mètres NGF</t>
-  </si>
-  <si>
     <t xml:space="preserve">cote_fin_crepine</t>
   </si>
   <si>
+    <t xml:space="preserve">Cote de fin de crépine en mètres NGF</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote de fin de crépine</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote de fin de crépine en mètres NGF</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_bss</t>
   </si>
   <si>
+    <t xml:space="preserve">Référence normalisée du captage de la banque du sous sol BRGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La BSS-Eau est la base de données relative aux informations sur les eaux souterraines, base de données au format SANDRE (données sur la qualité des eaux souterraines, niveaux d’eau, prélèvements, etc…), organisée et gérée par le BRGM. Elle diffuse des informations spécifiques sur le descriptif du point d’eau (entités hydrogéologiques, masses d’eau,...), les données sur les prélèvements et les traçages</t>
+  </si>
+  <si>
     <t xml:space="preserve">référence dans la banque du sous-sol (BRGM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Référence normalisée du captage de la banque du sous sol BRGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La BSS-Eau est la base de données relative aux informations sur les eaux souterraines, base de données au format SANDRE (données sur la qualité des eaux souterraines, niveaux d’eau, prélèvements, etc…), organisée et gérée par le BRGM. Elle diffuse des informations spécifiques sur le descriptif du point d’eau (entités hydrogéologiques, masses d’eau,...), les données sur les prélèvements et les traçages</t>
-  </si>
-  <si>
     <t xml:space="preserve">pluviometre</t>
   </si>
   <si>
@@ -1095,24 +1098,24 @@
     <t xml:space="preserve">type_pluviometre</t>
   </si>
   <si>
+    <t xml:space="preserve">exemple : cylindre gradué, auget basculeur, à balance, optique (source wikipedia).…</t>
+  </si>
+  <si>
     <t xml:space="preserve">*type de pluviomètre*</t>
   </si>
   <si>
-    <t xml:space="preserve">exemple : cylindre gradué, auget basculeur, à balance, optique (source wikipedia).…</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom usuel du pluviomètre</t>
   </si>
   <si>
     <t xml:space="preserve">ref_meteo_france</t>
   </si>
   <si>
+    <t xml:space="preserve">Codificiation des stations météo France</t>
+  </si>
+  <si>
     <t xml:space="preserve">référence Météo-France</t>
   </si>
   <si>
-    <t xml:space="preserve">Codificiation des stations météo France</t>
-  </si>
-  <si>
     <t xml:space="preserve">point_geolocalisation</t>
   </si>
   <si>
@@ -1122,25 +1125,22 @@
     <t xml:space="preserve">z_objet</t>
   </si>
   <si>
+    <t xml:space="preserve">Cote altimétrique levée de l'objet</t>
+  </si>
+  <si>
     <t xml:space="preserve">cote altimétrique de l'objet</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote altimétrique levée de l'objet</t>
-  </si>
-  <si>
     <t xml:space="preserve">reference_z</t>
   </si>
   <si>
+    <t xml:space="preserve">Lieu de lever du z : génératrice supérieure, fil d'eau, point topographique, fond de fouille, radier, voûte, …</t>
+  </si>
+  <si>
     <t xml:space="preserve">*lieu de lever du Z*</t>
   </si>
   <si>
-    <t xml:space="preserve">Lieu de lever du z : génératrice supérieure, fil d'eau, point topographique, fond de fouille, radier, voûte, …</t>
-  </si>
-  <si>
     <t xml:space="preserve">mode_lever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*mode de lever*</t>
   </si>
   <si>
     <t xml:space="preserve">Mode de levers: mesure manuelle, GPS, station totale, LIDAR, RTK</t>
@@ -1150,27 +1150,30 @@
 Mesure manuelle : par triangulation ou positionner sur un support carto</t>
   </si>
   <si>
+    <t xml:space="preserve">*mode de lever*</t>
+  </si>
+  <si>
     <t xml:space="preserve">date_lever</t>
   </si>
   <si>
+    <t xml:space="preserve">Date du lever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp without time zone</t>
+  </si>
+  <si>
     <t xml:space="preserve">date du lever</t>
   </si>
   <si>
-    <t xml:space="preserve">Date du lever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timestamp without time zone</t>
-  </si>
-  <si>
     <t xml:space="preserve">mesure_precision_xy</t>
   </si>
   <si>
+    <t xml:space="preserve">Qualité / précision GPS HRMS (x,y) en cm/m</t>
+  </si>
+  <si>
     <t xml:space="preserve">qualité précision (GPS HRMS en cm/m)</t>
   </si>
   <si>
-    <t xml:space="preserve">Qualité / précision GPS HRMS (x,y) en cm/m</t>
-  </si>
-  <si>
     <t xml:space="preserve">mesure_precision_z</t>
   </si>
   <si>
@@ -1180,43 +1183,40 @@
     <t xml:space="preserve">qualite_outil</t>
   </si>
   <si>
+    <t xml:space="preserve">% d'erreur de l'outil de détection</t>
+  </si>
+  <si>
     <t xml:space="preserve">pourcent d'erreur de l'appareil ou de la mesure</t>
   </si>
   <si>
-    <t xml:space="preserve">% d'erreur de l'outil de détection</t>
-  </si>
-  <si>
     <t xml:space="preserve">ass_point_prelevement</t>
   </si>
   <si>
     <t xml:space="preserve">id_ass_point_prelevement</t>
   </si>
   <si>
-    <t xml:space="preserve">Clé primaire</t>
+    <t xml:space="preserve">Nom usuel du point de prélèvement </t>
   </si>
   <si>
     <t xml:space="preserve">nom d’usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom usuel du point de prélèvement </t>
-  </si>
-  <si>
     <t xml:space="preserve">type_point_prelevement</t>
   </si>
   <si>
+    <t xml:space="preserve">Exemple : manuel/automatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_type_point_prelevement</t>
+  </si>
+  <si>
     <t xml:space="preserve">type de point de prélèvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Exemple : manuel/automatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_type_point_prelevement</t>
+    <t xml:space="preserve">Codification SANDRE</t>
   </si>
   <si>
     <t xml:space="preserve">code sandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codification SANDRE du type de point réglementaire</t>
   </si>
 </sst>
 </file>
@@ -1338,21 +1338,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I102" activeCellId="0" sqref="I102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E127" activeCellId="0" sqref="E127:J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="52.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,28 +1366,28 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1400,22 +1401,22 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1429,26 +1430,26 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,25 +1462,25 @@
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1493,30 +1494,30 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1528,30 +1529,30 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1563,30 +1564,30 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1598,22 +1599,22 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1627,23 +1628,23 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,26 +1657,26 @@
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,26 +1689,26 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,26 +1721,26 @@
       <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,23 +1753,23 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,23 +1782,23 @@
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,27 +1811,27 @@
       <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="M15" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1842,23 +1843,23 @@
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,26 +1872,26 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,26 +1904,26 @@
       <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1932,26 +1933,26 @@
       <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,26 +1965,26 @@
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,26 +1997,26 @@
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,23 +2029,23 @@
       <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,23 +2058,23 @@
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,25 +2087,25 @@
       <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2118,30 +2119,30 @@
       <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -2153,22 +2154,22 @@
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2182,23 +2183,23 @@
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,26 +2212,26 @@
       <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,26 +2244,26 @@
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,23 +2276,23 @@
       <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,26 +2305,26 @@
       <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,22 +2337,22 @@
       <c r="C32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2365,26 +2366,26 @@
       <c r="C33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,26 +2398,26 @@
       <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,26 +2430,26 @@
       <c r="C35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,22 +2462,22 @@
       <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2490,25 +2491,25 @@
       <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2522,26 +2523,26 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,22 +2555,22 @@
       <c r="C39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2583,26 +2584,26 @@
       <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,23 +2616,23 @@
       <c r="C41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,22 +2645,22 @@
       <c r="C42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2673,28 +2674,28 @@
       <c r="C43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2708,23 +2709,23 @@
       <c r="C44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,22 +2738,22 @@
       <c r="C45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2766,28 +2767,28 @@
       <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2801,23 +2802,23 @@
       <c r="C47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,22 +2831,22 @@
       <c r="C48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2859,28 +2860,28 @@
       <c r="C49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2894,23 +2895,23 @@
       <c r="C50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,26 +2924,26 @@
       <c r="C51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -2952,28 +2953,28 @@
       <c r="C52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="3" t="s">
+      <c r="M52" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2987,26 +2988,26 @@
       <c r="C53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,22 +3020,22 @@
       <c r="C54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3048,26 +3049,26 @@
       <c r="C55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,22 +3081,22 @@
       <c r="C56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E56" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3109,26 +3110,26 @@
       <c r="C57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,26 +3142,26 @@
       <c r="C58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E58" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,22 +3174,22 @@
       <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3202,26 +3203,26 @@
       <c r="C60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,59 +3235,51 @@
       <c r="C61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -3296,25 +3289,25 @@
         <v>180</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,28 +3318,25 @@
         <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,28 +3344,31 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,30 +3376,27 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>199</v>
+      <c r="E66" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3415,28 +3405,31 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,31 +3437,28 @@
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,31 +3466,31 @@
         <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,28 +3498,31 @@
         <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,28 +3530,28 @@
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,28 +3559,28 @@
         <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,28 +3588,28 @@
         <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,28 +3617,28 @@
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,31 +3646,28 @@
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,28 +3675,31 @@
         <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,27 +3707,27 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3743,31 +3736,28 @@
         <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,28 +3765,31 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,28 +3797,28 @@
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,31 +3826,28 @@
         <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>235</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,28 +3855,31 @@
         <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,30 +3887,27 @@
         <v>11</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3926,31 +3916,31 @@
         <v>11</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,28 +3948,31 @@
         <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,30 +3980,27 @@
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>248</v>
+      <c r="E86" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4019,31 +4009,31 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,31 +4041,31 @@
         <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,31 +4073,31 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,28 +4105,31 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,28 +4137,28 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,28 +4166,28 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,28 +4195,28 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,28 +4224,28 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,24 +4256,24 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>271</v>
+      <c r="E95" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4292,28 +4285,25 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,28 +4314,28 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,25 +4346,28 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,28 +4378,25 @@
         <v>100</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,1508 +4404,1511 @@
         <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="F101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C102" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" s="1" t="s">
+      <c r="F102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" s="1" t="s">
+      <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M108" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M117" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>39</v>
+        <v>300</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>310</v>
+      <c r="E119" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D122" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>17</v>
+      <c r="M126" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M127" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D128" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>337</v>
+        <v>39</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M130" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M135" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>355</v>
+        <v>39</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="F138" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>364</v>
+      <c r="E141" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D142" s="1" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="F143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D143" s="1" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="F144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M146" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="F147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="F148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>384</v>
+      <c r="B149" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5924,31 +5917,28 @@
         <v>11</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,34 +5946,31 @@
         <v>11</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>190</v>
+        <v>16</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,35 +5978,70 @@
         <v>11</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>154</v>
+      <c r="E153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K152"/>
+  <autoFilter ref="A1:K153"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
